--- a/OB2_visuals_bar.xlsx
+++ b/OB2_visuals_bar.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soowan/Documents/VSCODE/Pearl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9805F415-AC66-EE4C-9BAE-F9BB0B5D2289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F746195B-ADB8-E344-BF27-BD87DF9B5768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{24D03846-25E2-8548-A252-DB3275AA27CE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{24D03846-25E2-8548-A252-DB3275AA27CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pediatric " sheetId="1" r:id="rId1"/>
-    <sheet name="Pediatric 3D" sheetId="2" r:id="rId2"/>
+    <sheet name="Pediatric_1" sheetId="3" r:id="rId1"/>
+    <sheet name="Pediatric " sheetId="1" r:id="rId2"/>
+    <sheet name="Pediatric 3D" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="21">
   <si>
     <t>RMSE</t>
   </si>
@@ -457,6 +458,674 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECF0A11-C1F5-7A44-BC90-0CFFA5D45B69}">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.734</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>B2/100</f>
+        <v>4.734E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>17.137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D48" si="0">B3/100</f>
+        <v>0.17136999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.9909999999999997</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4.9909999999999996E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10.862</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.10861999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12.167</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.12167</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7.3380000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.671E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5.5709999999999997</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5.5709999999999996E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8.2840000000000007</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>8.2840000000000011E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.4720000000000004</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5.4720000000000005E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11.163</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.11163000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.4369999999999998</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3.4369999999999998E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.8929999999999998</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>3.8929999999999999E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11.193</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.11193</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.8919999999999995</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>8.8919999999999999E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9.4589999999999996</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>9.4589999999999994E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1">
+        <v>20.888999999999999</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.20888999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.9770000000000003</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>4.9770000000000002E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>5.5370000000000003E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>6.4119999999999996E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>3.0539999999999998E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7.008</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>7.0080000000000003E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3.4980000000000002</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>3.4980000000000004E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC28C9C-20C5-C54C-A3CA-77547066896B}">
   <dimension ref="A1:F49"/>
   <sheetViews>
@@ -513,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D50" si="0">B3/100</f>
+        <f t="shared" ref="D3:D48" si="0">B3/100</f>
         <v>0.17136999999999999</v>
       </c>
       <c r="E3" s="1">
@@ -1288,12 +1957,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738230D5-BB07-A24A-91F1-3B3B14C5D01D}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
